--- a/Roadmap + Aims per day/Затраченное время и изученное.xlsx
+++ b/Roadmap + Aims per day/Затраченное время и изученное.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>Дата</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Сделал метод add, который метод принимает только значение.</t>
+  </si>
+  <si>
+    <t>Подробнее разобрался в дженериках и закрыл дыру. Алишев в теме о Дженериках так и не рассказал очсновную фишку дженериков. Пришлосб разюираться самостоятельно через ChatGPT.</t>
   </si>
 </sst>
 </file>
@@ -598,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F40" sqref="E40:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1175,6 +1178,20 @@
         <v>61</v>
       </c>
     </row>
+    <row r="44" spans="3:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="7">
+        <v>38</v>
+      </c>
+      <c r="D44" s="8">
+        <v>45986</v>
+      </c>
+      <c r="E44" s="7">
+        <v>3</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="50" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F50" t="s">
         <v>39</v>

--- a/Roadmap + Aims per day/Затраченное время и изученное.xlsx
+++ b/Roadmap + Aims per day/Затраченное время и изученное.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java\Conspects\Roadmap + Aims per day\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24460" windowHeight="9580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24456" windowHeight="9576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>8+ часов</t>
   </si>
@@ -209,27 +214,23 @@
     <t>За эти 4 дня изучены уроки с 4 по 10. На половину разобран 11 урок. Из-за того что мак мне все нахрен сбросил, информация какие уроки в каой день были изучены утерялась. Хорошо,что удалось восстановить конспекты за счет бэкапа.</t>
   </si>
   <si>
-    <t>Пока надо сделать паузу в уроках и разобраться с тем что есть. Прочитать конспекты, разобраться на практике. Потому что не все запоминается.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сегодня план: надо понять, зачем вообще может использоваться восходящее и нисходящее преобразование . Зачем вообще используется конструкция Animal animal - new Doq(); </t>
-  </si>
-  <si>
-    <t>В каких случаях это может быть полезно, ведь универсальный метод, у которого в парматерах переменная родительского типа иожет принимать не только родителей но и потомков</t>
+    <t>день пропущен</t>
+  </si>
+  <si>
+    <t>Изучены 11 и 12 уроки</t>
+  </si>
+  <si>
+    <t>Изучены 13, 14, 15 уроки. Начат 16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="dd\-mmm"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\-mmm"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,159 +245,8 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,19 +267,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,198 +291,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -640,267 +316,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -920,62 +354,22 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Link" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1233,29 +627,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="6.5546875" customWidth="1"/>
     <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="6.78125" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
-    <col min="6" max="6" width="243.4453125" customWidth="1"/>
+    <col min="6" max="6" width="243.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:3">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1263,12 +657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:1">
+    <row r="2" spans="1:6" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="15" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1285,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="15" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1302,7 +696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="15" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -1319,7 +713,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="3:6">
+    <row r="6" spans="1:6" ht="15" customHeight="1">
       <c r="C6" s="3">
         <v>3</v>
       </c>
@@ -1333,7 +727,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="3:6">
+    <row r="7" spans="1:6" ht="15" customHeight="1">
       <c r="C7" s="6">
         <v>4</v>
       </c>
@@ -1347,7 +741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="3:6">
+    <row r="8" spans="1:6" ht="15" customHeight="1">
       <c r="C8" s="6">
         <v>5</v>
       </c>
@@ -1361,7 +755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="3:6">
+    <row r="9" spans="1:6" ht="15" customHeight="1">
       <c r="C9" s="6">
         <v>6</v>
       </c>
@@ -1375,7 +769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="3:6">
+    <row r="10" spans="1:6" ht="15" customHeight="1">
       <c r="C10" s="3">
         <v>7</v>
       </c>
@@ -1389,7 +783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="3:6">
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="C11" s="3">
         <v>8</v>
       </c>
@@ -1403,7 +797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="3:6">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="C12" s="6">
         <v>9</v>
       </c>
@@ -1417,7 +811,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="3:6">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="C13" s="4">
         <v>10</v>
       </c>
@@ -1431,7 +825,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="3:6">
+    <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="C14" s="6">
         <v>11</v>
       </c>
@@ -1445,7 +839,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="3:6">
+    <row r="15" spans="1:6" ht="15" customHeight="1">
       <c r="C15" s="6">
         <v>12</v>
       </c>
@@ -1459,7 +853,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="3:6">
+    <row r="16" spans="1:6" ht="15" customHeight="1">
       <c r="C16" s="6">
         <v>13</v>
       </c>
@@ -1473,7 +867,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="3:6">
+    <row r="17" spans="3:6" ht="15" customHeight="1">
       <c r="C17" s="4">
         <v>14</v>
       </c>
@@ -1487,7 +881,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="3:6">
+    <row r="18" spans="3:6" ht="15" customHeight="1">
       <c r="C18" s="4">
         <v>15</v>
       </c>
@@ -1501,7 +895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="3:6">
+    <row r="19" spans="3:6" ht="15" customHeight="1">
       <c r="C19" s="3">
         <v>16</v>
       </c>
@@ -1515,7 +909,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="3:6">
+    <row r="20" spans="3:6" ht="15" customHeight="1">
       <c r="C20" s="6">
         <v>17</v>
       </c>
@@ -1529,7 +923,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="3:6">
+    <row r="21" spans="3:6" ht="15" customHeight="1">
       <c r="C21" s="6">
         <v>18</v>
       </c>
@@ -1543,7 +937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="3:6">
+    <row r="22" spans="3:6" ht="15" customHeight="1">
       <c r="C22" s="4">
         <v>19</v>
       </c>
@@ -1557,7 +951,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="3:6">
+    <row r="23" spans="3:6" ht="15" customHeight="1">
       <c r="C23" s="3">
         <v>20</v>
       </c>
@@ -1571,7 +965,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="3:6">
+    <row r="24" spans="3:6" ht="15" customHeight="1">
       <c r="C24" s="2">
         <v>21</v>
       </c>
@@ -1585,7 +979,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="3:6">
+    <row r="25" spans="3:6" ht="15" customHeight="1">
       <c r="C25" s="3">
         <v>22</v>
       </c>
@@ -1599,7 +993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="3:6">
+    <row r="26" spans="3:6" ht="15" customHeight="1">
       <c r="C26" s="3">
         <v>23</v>
       </c>
@@ -1613,7 +1007,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="3:6">
+    <row r="27" spans="3:6" ht="15" customHeight="1">
       <c r="C27" s="2">
         <v>24</v>
       </c>
@@ -1627,7 +1021,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="3:6">
+    <row r="28" spans="3:6" ht="15" customHeight="1">
       <c r="C28" s="10"/>
       <c r="D28" s="11">
         <v>45940</v>
@@ -1639,7 +1033,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="3:6">
+    <row r="29" spans="3:6" ht="15" customHeight="1">
       <c r="C29" s="3">
         <v>25</v>
       </c>
@@ -1653,7 +1047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" customHeight="1" spans="3:6">
+    <row r="30" spans="3:6" ht="15" customHeight="1">
       <c r="C30" s="3">
         <v>26</v>
       </c>
@@ -1667,7 +1061,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" customHeight="1" spans="3:6">
+    <row r="31" spans="3:6" ht="15" customHeight="1">
       <c r="C31" s="3">
         <v>27</v>
       </c>
@@ -1681,7 +1075,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" customHeight="1" spans="3:6">
+    <row r="32" spans="3:6" ht="15" customHeight="1">
       <c r="C32" s="1">
         <v>28</v>
       </c>
@@ -1695,7 +1089,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" customHeight="1" spans="3:6">
+    <row r="33" spans="3:6" ht="15" customHeight="1">
       <c r="C33" s="2">
         <v>29</v>
       </c>
@@ -1709,7 +1103,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" customHeight="1" spans="3:6">
+    <row r="34" spans="3:6" ht="15" customHeight="1">
       <c r="C34" s="2">
         <v>30</v>
       </c>
@@ -1723,7 +1117,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="3:6">
+    <row r="35" spans="3:6" ht="15" customHeight="1">
       <c r="C35" s="3">
         <v>31</v>
       </c>
@@ -1737,7 +1131,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" customHeight="1" spans="3:6">
+    <row r="36" spans="3:6" ht="15" customHeight="1">
       <c r="C36" s="6">
         <v>32</v>
       </c>
@@ -1751,7 +1145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="3:6">
+    <row r="37" spans="3:6" ht="15" customHeight="1">
       <c r="C37" s="2">
         <v>33</v>
       </c>
@@ -1765,7 +1159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" customHeight="1" spans="3:6">
+    <row r="38" spans="3:6" ht="15" customHeight="1">
       <c r="C38" s="2">
         <v>34</v>
       </c>
@@ -1779,7 +1173,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="39" customHeight="1" spans="3:6">
+    <row r="39" spans="3:6" ht="15" customHeight="1">
       <c r="C39" s="3">
         <v>35</v>
       </c>
@@ -1793,7 +1187,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" customHeight="1" spans="3:6">
+    <row r="41" spans="3:6" ht="15" customHeight="1">
       <c r="C41">
         <v>36</v>
       </c>
@@ -1807,7 +1201,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" customHeight="1" spans="3:6">
+    <row r="42" spans="3:6" ht="15" customHeight="1">
       <c r="C42">
         <v>37</v>
       </c>
@@ -1818,7 +1212,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="3:6">
+    <row r="44" spans="3:6" ht="15" customHeight="1">
       <c r="C44" s="14">
         <v>38</v>
       </c>
@@ -1830,7 +1224,7 @@
       </c>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" customHeight="1" spans="3:6">
+    <row r="45" spans="3:6" ht="15" customHeight="1">
       <c r="C45" s="14">
         <v>39</v>
       </c>
@@ -1842,7 +1236,7 @@
       </c>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" customHeight="1" spans="3:6">
+    <row r="46" spans="3:6" ht="15" customHeight="1">
       <c r="C46" s="14">
         <v>40</v>
       </c>
@@ -1854,7 +1248,7 @@
       </c>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" customHeight="1" spans="3:6">
+    <row r="47" spans="3:6" ht="15" customHeight="1">
       <c r="C47" s="14">
         <v>41</v>
       </c>
@@ -1868,24 +1262,52 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="6:6">
-      <c r="F50" t="s">
+    <row r="48" spans="3:6" ht="15" customHeight="1">
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="6:6">
-      <c r="F51" t="s">
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="3:6" ht="15" customHeight="1">
+      <c r="C49" s="27">
+        <v>43</v>
+      </c>
+      <c r="D49" s="29">
+        <v>45993</v>
+      </c>
+      <c r="E49" s="27">
+        <v>3</v>
+      </c>
+      <c r="F49" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="6:6">
-      <c r="F52" t="s">
+    <row r="50" spans="3:6" ht="15" customHeight="1">
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="3:6" ht="15" customHeight="1">
+      <c r="C51" s="2">
+        <v>44</v>
+      </c>
+      <c r="D51" s="30">
+        <v>45995</v>
+      </c>
+      <c r="E51" s="2">
+        <v>6</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Roadmap + Aims per day/Затраченное время и изученное.xlsx
+++ b/Roadmap + Aims per day/Затраченное время и изученное.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java\Conspects\Roadmap + Aims per day\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Conspects\Roadmap + Aims per day\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>8+ часов</t>
   </si>
@@ -221,6 +221,15 @@
   </si>
   <si>
     <t>Изучены 13, 14, 15 уроки. Начат 16</t>
+  </si>
+  <si>
+    <t>Изучение 16 урока</t>
+  </si>
+  <si>
+    <t>Изучен 16 урок</t>
+  </si>
+  <si>
+    <t>Решал задачу 3531, но система LeetCode так и не приняла ее. Memory Limit Excedeed 622/634 тесткейсов пройдено.</t>
   </si>
 </sst>
 </file>
@@ -633,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -1306,6 +1315,48 @@
         <v>62</v>
       </c>
     </row>
+    <row r="52" spans="3:6" ht="15" customHeight="1">
+      <c r="C52" s="27">
+        <v>45</v>
+      </c>
+      <c r="D52" s="29">
+        <v>46000</v>
+      </c>
+      <c r="E52" s="27">
+        <v>3</v>
+      </c>
+      <c r="F52" s="27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" ht="15" customHeight="1">
+      <c r="C53" s="27">
+        <v>46</v>
+      </c>
+      <c r="D53" s="29">
+        <v>46001</v>
+      </c>
+      <c r="E53" s="27">
+        <v>3</v>
+      </c>
+      <c r="F53" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" ht="15" customHeight="1">
+      <c r="C54" s="27">
+        <v>47</v>
+      </c>
+      <c r="D54" s="29">
+        <v>46002</v>
+      </c>
+      <c r="E54" s="27">
+        <v>3</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
